--- a/build/resources/main/files/commonTemplate/Template_Organisation.xlsx
+++ b/build/resources/main/files/commonTemplate/Template_Organisation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Desktop\IS4103\new AAU\2nd try\Common Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngjin\Documents\IS4103Project\matchub-backend\build\resources\main\files\commonTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22AAAA3-8A91-4322-B4B1-9EE64B3D95C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EFF74D-EB83-4FFA-B481-2D82044B1BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{11F99404-171E-48CD-9522-4270C2C900F5}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>Organization name*</t>
   </si>
   <si>
@@ -62,14 +56,41 @@
     <t>SDG Target Relevance (Optional)</t>
   </si>
   <si>
-    <t>Target x.x</t>
+    <t>SAMPLE INPUT</t>
+  </si>
+  <si>
+    <t>Willing Hearts</t>
+  </si>
+  <si>
+    <t>willinghearts@gmail.com</t>
+  </si>
+  <si>
+    <t>A secular, non-affiliated charity, Willing Hearts is wholly run by volunteers, apart from a handful of staff. It operates a soup kitchen that prepares, cooks and distributes about 5,000 daily meals to over 40 locations island wide, 365 days a year.</t>
+  </si>
+  <si>
+    <t>Looking for volunteers</t>
+  </si>
+  <si>
+    <t>Target 3.1, Target 3.3, Target 3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore </t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Country (Optional)</t>
+  </si>
+  <si>
+    <t>City (Optional)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,17 +150,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{303C0D7A-9AB2-481C-B28D-5CEC2E3E8AFF}"/>
   </cellStyles>
@@ -442,13 +485,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="19.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="31.08984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.81640625" style="2" customWidth="1"/>
@@ -460,37 +504,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C6A2CCCF-3452-493A-B0D6-371F6E1D7BBB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>